--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43141,6 +43141,41 @@
         <v>86300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43176,6 +43176,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>272100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43211,6 +43211,41 @@
         <v>272100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43246,6 +43246,41 @@
         <v>110500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43281,6 +43281,41 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>130200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43316,6 +43316,41 @@
         <v>130200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>61500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43351,6 +43351,41 @@
         <v>61500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>146900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43386,6 +43386,41 @@
         <v>146900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43421,6 +43421,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>67000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43456,6 +43456,41 @@
         <v>67000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>280700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43491,6 +43491,41 @@
         <v>280700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>148500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43526,6 +43526,41 @@
         <v>148500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>220300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43561,6 +43561,76 @@
         <v>220300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>307200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43631,6 +43631,76 @@
         <v>307200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>841600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>92300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43701,6 +43701,41 @@
         <v>92300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>146600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43736,6 +43736,41 @@
         <v>146600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>61700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43771,6 +43771,41 @@
         <v>61700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>83400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         <v>83400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>310200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,76 @@
         <v>310200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>282300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>123800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43911,6 +43911,41 @@
         <v>123800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>180000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43946,6 +43946,41 @@
         <v>180000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>664000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83671,6 +83671,41 @@
         <v>664000</v>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>526100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83706,6 +83706,41 @@
         <v>526100</v>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>388200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2377"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83741,6 +83741,41 @@
         <v>388200</v>
       </c>
     </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>177200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83776,6 +83776,41 @@
         <v>177200</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>808900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83811,6 +83811,41 @@
         <v>808900</v>
       </c>
     </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2380" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2380" t="n">
+        <v>476600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83846,6 +83846,41 @@
         <v>476600</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>359000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2381"/>
+  <dimension ref="A1:I2382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83881,6 +83881,41 @@
         <v>359000</v>
       </c>
     </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>383700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2382"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83916,6 +83916,41 @@
         <v>383700</v>
       </c>
     </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>334700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83951,6 +83951,41 @@
         <v>334700</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>342200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83986,6 +83986,41 @@
         <v>342200</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>572800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84021,6 +84021,41 @@
         <v>572800</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I2386" t="n">
+        <v>270800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84056,6 +84056,41 @@
         <v>270800</v>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>176000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84091,6 +84091,41 @@
         <v>176000</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>466800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84126,6 +84126,41 @@
         <v>466800</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I2389" t="n">
+        <v>231900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0108.xlsx
+++ b/data/0108.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84161,6 +84161,41 @@
         <v>231900</v>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>0108</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>N2N</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2390" t="n">
+        <v>81300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
